--- a/analysis/ExData/Motion/CutData/All_COT.xlsx
+++ b/analysis/ExData/Motion/CutData/All_COT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="17">
   <si>
     <t>Participant</t>
   </si>
@@ -31,7 +31,31 @@
     <t>Ebina</t>
   </si>
   <si>
+    <t>Hijikata</t>
+  </si>
+  <si>
+    <t>Kato</t>
+  </si>
+  <si>
+    <t>Kawai</t>
+  </si>
+  <si>
+    <t>Kitamichi</t>
+  </si>
+  <si>
     <t>Kusaka</t>
+  </si>
+  <si>
+    <t>Nakamura</t>
+  </si>
+  <si>
+    <t>Sakurai</t>
+  </si>
+  <si>
+    <t>Tsuruoka</t>
+  </si>
+  <si>
+    <t>Yamashita</t>
   </si>
   <si>
     <t>without feedback</t>
@@ -398,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +450,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -443,7 +467,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -460,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -477,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -494,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -511,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -528,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -545,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -562,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -579,13 +603,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.124168190003547</v>
+        <v>0.2610236200096562</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -596,13 +620,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>0.1527010599999995</v>
+        <v>0.2151237099897109</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -613,13 +637,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>0.1285740300008911</v>
+        <v>0.2960543900029723</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -630,13 +654,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.1949645100030459</v>
+        <v>0.1806242200022094</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -647,13 +671,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>0.07919269999692879</v>
+        <v>0.2966086200030986</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -664,13 +688,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>0.1455765999999118</v>
+        <v>0.2952823299914599</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -681,13 +705,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0.09278833999997005</v>
+        <v>0.2340372699894918</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -698,13 +722,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18">
-        <v>0.1344250399983153</v>
+        <v>0.2826416299969424</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -715,13 +739,1237 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0.2278798400133377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0.1830524900011373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0.2396522700015348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>0.2063564000010942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0.1418965899996699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0.2274361200004941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>0.2068083600039255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0.2220681300008439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0.2223730200013945</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>0.1555593400014922</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0.1601272300235003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0.1234475100063719</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>0.1723231800366188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0.1684166899998672</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>0.1542277599684876</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>0.1255939199822006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0.110651580011471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>0.1522792699979606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0.1202966600190836</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>8</v>
       </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0.3149763399982476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0.1463970800017696</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>0.1879469600025914</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0.1129367100002128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>0.2243908199961869</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>0.2156345499999585</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0.2017820099979868</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0.1137223900019315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0.1194842399985653</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0.124168190003547</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0.1527010599999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>0.1285740300008911</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0.1949645100030459</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0.07919269999692879</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>0.1455765999999118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0.09278833999997005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0.1344250399983153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
         <v>0.09929455000092383</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0.242682849999982</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0.1777034599988841</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>0.2411628000016211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0.2434065300010841</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>0.191116190000321</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>0.1555916199999055</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0.257163360003325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>0.127733019996958</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>0.1559458100033238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0.2721243900014089</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>0.1800703999979296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>0.1105963400012113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0.1921763599981205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>0.1316641899989916</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>0.2213714700003029</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0.4188825299992443</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>0.1484867599996502</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>0.1262803699981307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0.101559020001149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>0.1896961799968261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>0.1925251199980256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0.1497805699982568</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>0.05091454999783309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>0.2169741999998225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>0.1922608800014139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>0.5802649000033853</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>0.2373055699994438</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0.1224858300003682</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>0.1735758099996017</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>0.1861100100024476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>0.101378050002676</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>0.2724351800017743</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>0.2860210500002724</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0.06387012999766757</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>0.1078665500041119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>0.197477790000268</v>
       </c>
     </row>
   </sheetData>
